--- a/OSC_CRYSTAL.xlsx
+++ b/OSC_CRYSTAL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="70">
   <si>
     <t>Name</t>
   </si>
@@ -219,6 +219,21 @@
   </si>
   <si>
     <t>12.5 PF</t>
+  </si>
+  <si>
+    <t>20 MHZ</t>
+  </si>
+  <si>
+    <t>ABLS-12.000MHZ-20-B-3-H-T</t>
+  </si>
+  <si>
+    <t>ABLS-20.000MHZ-20-B-3-H-T</t>
+  </si>
+  <si>
+    <t>ABLS</t>
+  </si>
+  <si>
+    <t>20 PF</t>
   </si>
 </sst>
 </file>
@@ -395,43 +410,6 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Bahnschrift Light SemiCondensed"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -467,6 +445,43 @@
         <name val="Bahnschrift Light SemiCondensed"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Bahnschrift Light SemiCondensed"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -540,16 +555,16 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G45" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" tableBorderDxfId="7" headerRowCellStyle="Explanatory Text">
   <autoFilter ref="A1:G45"/>
-  <sortState ref="A2:G30">
-    <sortCondition ref="A1:A30"/>
+  <sortState ref="A2:G45">
+    <sortCondition ref="F1:F45"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Name" dataDxfId="1"/>
-    <tableColumn id="8" name="Frequency" dataDxfId="2"/>
-    <tableColumn id="3" name="Part Number" dataDxfId="6"/>
-    <tableColumn id="4" name="QTY" dataDxfId="5"/>
-    <tableColumn id="5" name="Package" dataDxfId="4"/>
-    <tableColumn id="6" name="Type" dataDxfId="3"/>
+    <tableColumn id="1" name="Name" dataDxfId="6"/>
+    <tableColumn id="8" name="Frequency" dataDxfId="5"/>
+    <tableColumn id="3" name="Part Number" dataDxfId="4"/>
+    <tableColumn id="4" name="QTY" dataDxfId="3"/>
+    <tableColumn id="5" name="Package" dataDxfId="2"/>
+    <tableColumn id="6" name="Type" dataDxfId="1"/>
     <tableColumn id="2" name="Capacitance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -821,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -861,20 +876,20 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
-        <v>403</v>
+      <c r="A2" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>10</v>
@@ -885,114 +900,114 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D3" s="2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="2">
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
+      <c r="A6" s="7">
+        <v>403</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>27</v>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>12</v>
+      <c r="A7" s="7">
+        <v>403</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>26</v>
@@ -1000,183 +1015,183 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="6">
-        <v>4</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>12</v>
+      <c r="A10" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="2">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>65</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="6">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
+        <v>66</v>
+      </c>
+      <c r="D11" s="2">
+        <v>10</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="6">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6">
         <v>3</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
-        <v>403</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D15" s="6">
-        <v>3</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>26</v>
@@ -1184,16 +1199,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="6">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>17</v>
@@ -1202,138 +1217,169 @@
         <v>16</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="2">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="D17" s="6">
+        <v>3</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="2">
-        <v>2</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="6">
+        <v>4</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>58</v>
+      <c r="A19" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20" s="6">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D20" s="2">
+        <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="2">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="D21" s="6">
+        <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="6">
         <v>10</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="7"/>
-      <c r="E22" s="2"/>
-      <c r="G22" s="6"/>
+      <c r="E22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="6"/>
+      <c r="A23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="2">
+        <v>20</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
